--- a/人物关系图.xlsx
+++ b/人物关系图.xlsx
@@ -693,7 +693,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-              <a:t>？</a:t>
+              <a:t>理发师</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -984,16 +984,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>144779</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1002,7 +1002,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8961120" y="8740139"/>
+          <a:off x="9685020" y="6751319"/>
           <a:ext cx="937260" cy="922021"/>
           <a:chOff x="3840480" y="1394459"/>
           <a:chExt cx="937260" cy="922021"/>
@@ -1058,7 +1058,7 @@
               <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                <a:t>？</a:t>
+                <a:t>焦困</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -1154,16 +1154,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>175259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1172,7 +1172,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11163300" y="8747759"/>
+          <a:off x="11887200" y="6758939"/>
           <a:ext cx="937260" cy="922021"/>
           <a:chOff x="3840480" y="1394459"/>
           <a:chExt cx="937260" cy="922021"/>
@@ -1228,7 +1228,7 @@
               <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                <a:t>（小孩）</a:t>
+                <a:t>王燕</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -1956,6 +1956,117 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>27062</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="3"/>
+          <a:endCxn id="41" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10622280" y="7151762"/>
+          <a:ext cx="1264920" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="TextBox 57"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10988040" y="6865620"/>
+          <a:ext cx="670560" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>夫妻</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2248,8 +2359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
